--- a/src/test/java/ru/fds/tavrzcms3/testdata/monitoring_update.xlsx
+++ b/src/test/java/ru/fds/tavrzcms3/testdata/monitoring_update.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <r>
       <t xml:space="preserve">pledge_subject_id: </t>
@@ -151,6 +151,9 @@
   </si>
   <si>
     <t>LOSING</t>
+  </si>
+  <si>
+    <t>Сотрудник 3</t>
   </si>
 </sst>
 </file>
@@ -501,7 +504,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="E3" sqref="E3:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -569,6 +572,9 @@
       <c r="C3" s="2">
         <v>37289</v>
       </c>
+      <c r="D3" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="E3" t="s">
         <v>11</v>
       </c>
@@ -594,6 +600,9 @@
       </c>
       <c r="D4" s="3" t="s">
         <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
       </c>
       <c r="F4" t="s">
         <v>12</v>
